--- a/src/Input_Files/characters/great_britain_characters.xlsx
+++ b/src/Input_Files/characters/great_britain_characters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\great_britain_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD9B878-315A-4208-9E9A-7987B0852C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9104015-5642-4F6F-9AA0-51B1EA245376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="15560" windowWidth="14900" windowHeight="5180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -308,6 +308,72 @@
   </si>
   <si>
     <t>(80, 9, 202)</t>
+  </si>
+  <si>
+    <t>Primary Title</t>
+  </si>
+  <si>
+    <t>realm_succession_laws</t>
+  </si>
+  <si>
+    <t>single_heir_succession_law;male_only_law</t>
+  </si>
+  <si>
+    <t>c_galway</t>
+  </si>
+  <si>
+    <t>c_gailenga</t>
+  </si>
+  <si>
+    <t>c_nenagh</t>
+  </si>
+  <si>
+    <t>c_imokilly</t>
+  </si>
+  <si>
+    <t>c_kildare</t>
+  </si>
+  <si>
+    <t>c_west_sussex</t>
+  </si>
+  <si>
+    <t>k_scotland</t>
+  </si>
+  <si>
+    <t>c_exeter</t>
+  </si>
+  <si>
+    <t>c_norwich</t>
+  </si>
+  <si>
+    <t>c_wiltshire</t>
+  </si>
+  <si>
+    <t>c_bamburgh</t>
+  </si>
+  <si>
+    <t>c_durham</t>
+  </si>
+  <si>
+    <t>c_taunton</t>
+  </si>
+  <si>
+    <t>c_gloucester</t>
+  </si>
+  <si>
+    <t>c_doncaster</t>
+  </si>
+  <si>
+    <t>c_west_suffolk</t>
+  </si>
+  <si>
+    <t>c_buckingham</t>
+  </si>
+  <si>
+    <t>c_bayeux</t>
+  </si>
+  <si>
+    <t>single_heir_succession_law;male_preference_law</t>
   </si>
 </sst>
 </file>
@@ -700,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,10 +777,14 @@
     <col min="1" max="1" width="38.1796875" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,152 +809,158 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -901,8 +977,9 @@
       <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -949,8 +1026,10 @@
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -967,8 +1046,9 @@
       <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1015,8 +1095,10 @@
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1033,10 +1115,11 @@
       <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1079,8 +1162,10 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1097,10 +1182,12 @@
       <c r="H5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1143,8 +1230,10 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -1161,7 +1250,9 @@
       <c r="H6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1209,8 +1300,10 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
@@ -1227,10 +1320,12 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1268,8 +1363,10 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1284,8 +1381,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1332,8 +1433,10 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1350,8 +1453,9 @@
       <c r="H9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1397,8 +1501,10 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1415,10 +1521,12 @@
       <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1462,8 +1570,10 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -1480,10 +1590,12 @@
       <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1527,8 +1639,10 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1545,8 +1659,9 @@
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1593,8 +1708,10 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -1611,12 +1728,14 @@
       <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1654,8 +1773,10 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -1672,10 +1793,12 @@
       <c r="H14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1714,8 +1837,10 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1730,10 +1855,14 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1777,8 +1906,10 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -1795,12 +1926,16 @@
       <c r="H16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -1817,12 +1952,16 @@
       <c r="H17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -1839,10 +1978,14 @@
       <c r="H18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -1859,12 +2002,16 @@
       <c r="H19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1877,9 +2024,12 @@
       <c r="H20" t="s">
         <v>57</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N19">
     <sortCondition ref="A2:A19"/>
   </sortState>
   <conditionalFormatting sqref="B20">
